--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_29.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2171407.652764749</v>
+        <v>2164971.128189162</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791245</v>
+        <v>419463.0933791244</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8543258.280807743</v>
+        <v>8542668.301417325</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>129.5184057603588</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>219.665435517976</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -707,10 +707,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -747,16 +747,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226354</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>147.2954742968102</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>109.9108761995014</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>98.33829404622634</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>144.5385456864548</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>262.1448308403117</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -962,7 +962,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968102</v>
+        <v>50.64353720722395</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>42.5823345952404</v>
+        <v>36.85215578095722</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>107.5598318036868</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>56.38292957267371</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>98.25883555495763</v>
       </c>
       <c r="C10" t="n">
-        <v>142.9126242536663</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>228.0547311297868</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.952815562145</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344424</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372792</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362804</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>245.6806612096733</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -1436,7 +1436,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>11.0984794159743</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465761</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681701</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456099</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901691</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
@@ -1582,19 +1582,19 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>94.92227405435726</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
@@ -1622,7 +1622,7 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362803</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087849</v>
+        <v>120.0961968842568</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>108.7885680330189</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>92.36664214762453</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
@@ -1819,19 +1819,19 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457862</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>18.14519103159448</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838887</v>
+        <v>24.17382596574976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828899</v>
+        <v>52.06849973564988</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431732</v>
+        <v>70.5760187316782</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459972</v>
+        <v>55.72314698196061</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643945</v>
+        <v>41.29686219380034</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931856</v>
+        <v>41.22330424667945</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908583</v>
+        <v>42.97275566644672</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147796</v>
+        <v>53.79159358883885</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805001</v>
+        <v>41.14384575541089</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922194</v>
+        <v>18.98356133658282</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367785</v>
+        <v>9.882059701038742</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920517</v>
+        <v>88.00800320656606</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277517</v>
       </c>
       <c r="T38" t="n">
         <v>90.90562710059311</v>
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
         <v>268.1977203190365</v>
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380516</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596456</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H46" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>412.8394060748688</v>
+        <v>525.8997999985939</v>
       </c>
       <c r="C2" t="n">
-        <v>412.8394060748688</v>
+        <v>525.8997999985939</v>
       </c>
       <c r="D2" t="n">
-        <v>412.8394060748688</v>
+        <v>525.8997999985939</v>
       </c>
       <c r="E2" t="n">
-        <v>412.8394060748688</v>
+        <v>525.8997999985939</v>
       </c>
       <c r="F2" t="n">
-        <v>190.9551277738829</v>
+        <v>513.0457655689758</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8327763022901</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K2" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="L2" t="n">
-        <v>536.8159511132837</v>
+        <v>534.8235384748673</v>
       </c>
       <c r="M2" t="n">
-        <v>1075.074736123376</v>
+        <v>1048.426217084555</v>
       </c>
       <c r="N2" t="n">
-        <v>1602.886019760838</v>
+        <v>1102.089684652122</v>
       </c>
       <c r="O2" t="n">
-        <v>1989.937409596799</v>
+        <v>1542.129285544451</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596799</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.79005602327</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.27650096432</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="T2" t="n">
-        <v>1970.27650096432</v>
+        <v>1813.66882166186</v>
       </c>
       <c r="U2" t="n">
-        <v>1970.27650096432</v>
+        <v>1813.66882166186</v>
       </c>
       <c r="V2" t="n">
-        <v>1970.27650096432</v>
+        <v>1813.66882166186</v>
       </c>
       <c r="W2" t="n">
-        <v>1599.277465932608</v>
+        <v>1442.669786630147</v>
       </c>
       <c r="X2" t="n">
-        <v>1209.824860865665</v>
+        <v>1053.217181563204</v>
       </c>
       <c r="Y2" t="n">
-        <v>813.3341517862657</v>
+        <v>656.7264724838049</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>556.1927859813161</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414083</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>275.4495881628886</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>139.0030972737763</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284337</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>1252.641318430369</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="N3" t="n">
-        <v>1252.641318430369</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="O3" t="n">
-        <v>1769.16160102135</v>
+        <v>1985.128818155981</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737748</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.782969737748</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467701</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222774</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>443.2442849253657</v>
+        <v>843.6186591501876</v>
       </c>
       <c r="C4" t="n">
-        <v>332.2231978551623</v>
+        <v>673.4135412161768</v>
       </c>
       <c r="D4" t="n">
-        <v>176.5900847576771</v>
+        <v>517.7804281186916</v>
       </c>
       <c r="E4" t="n">
-        <v>176.5900847576771</v>
+        <v>517.7804281186916</v>
       </c>
       <c r="F4" t="n">
-        <v>176.5900847576771</v>
+        <v>360.4544933316646</v>
       </c>
       <c r="G4" t="n">
-        <v>176.5900847576771</v>
+        <v>360.4544933316646</v>
       </c>
       <c r="H4" t="n">
-        <v>176.5900847576771</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475496</v>
+        <v>71.88151693023647</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>709.2236301045415</v>
+        <v>843.6186591501876</v>
       </c>
       <c r="U4" t="n">
-        <v>709.2236301045415</v>
+        <v>843.6186591501876</v>
       </c>
       <c r="V4" t="n">
-        <v>443.2442849253657</v>
+        <v>843.6186591501876</v>
       </c>
       <c r="W4" t="n">
-        <v>443.2442849253657</v>
+        <v>843.6186591501876</v>
       </c>
       <c r="X4" t="n">
-        <v>443.2442849253657</v>
+        <v>843.6186591501876</v>
       </c>
       <c r="Y4" t="n">
-        <v>443.2442849253657</v>
+        <v>843.6186591501876</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>211.4705762923849</v>
+        <v>713.7135198654389</v>
       </c>
       <c r="C5" t="n">
-        <v>65.47204529596591</v>
+        <v>713.7135198654389</v>
       </c>
       <c r="D5" t="n">
-        <v>65.47204529596591</v>
+        <v>328.2723910821067</v>
       </c>
       <c r="E5" t="n">
-        <v>65.47204529596591</v>
+        <v>63.47963265754937</v>
       </c>
       <c r="F5" t="n">
-        <v>52.61801086634773</v>
+        <v>50.62559822793119</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475496</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>402.4780154222168</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L5" t="n">
-        <v>895.7983071407457</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>1434.057092150838</v>
+        <v>1542.129285544451</v>
       </c>
       <c r="N5" t="n">
-        <v>1961.8683757883</v>
+        <v>1542.129285544451</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737748</v>
+        <v>1542.129285544451</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737748</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.79005602327</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.27650096432</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.27650096432</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="U5" t="n">
-        <v>1714.523771398919</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="V5" t="n">
-        <v>1372.416962102438</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="W5" t="n">
-        <v>1001.417927070725</v>
+        <v>1499.656834011781</v>
       </c>
       <c r="X5" t="n">
-        <v>611.9653220037818</v>
+        <v>1110.204228944838</v>
       </c>
       <c r="Y5" t="n">
-        <v>611.9653220037818</v>
+        <v>713.7135198654389</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284337</v>
+        <v>90.89050074442683</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M6" t="n">
-        <v>1498.174658585115</v>
+        <v>642.3356118811478</v>
       </c>
       <c r="N6" t="n">
-        <v>1658.262687146767</v>
+        <v>1155.938290490836</v>
       </c>
       <c r="O6" t="n">
-        <v>2174.782969737748</v>
+        <v>1669.540969100524</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>199.0544715355525</v>
+        <v>354.3077325818715</v>
       </c>
       <c r="C7" t="n">
-        <v>199.0544715355525</v>
+        <v>354.3077325818715</v>
       </c>
       <c r="D7" t="n">
-        <v>199.0544715355525</v>
+        <v>354.3077325818715</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475496</v>
+        <v>354.3077325818715</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475496</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475496</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>742.1265981188567</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>742.1265981188567</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>742.1265981188567</v>
+        <v>657.5114775397919</v>
       </c>
       <c r="V7" t="n">
-        <v>476.1472529396809</v>
+        <v>391.5321323606162</v>
       </c>
       <c r="W7" t="n">
-        <v>433.1347937525694</v>
+        <v>354.3077325818715</v>
       </c>
       <c r="X7" t="n">
-        <v>199.0544715355525</v>
+        <v>354.3077325818715</v>
       </c>
       <c r="Y7" t="n">
-        <v>199.0544715355525</v>
+        <v>354.3077325818715</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>923.4577156540399</v>
+        <v>572.8537033227647</v>
       </c>
       <c r="C8" t="n">
-        <v>530.2822141569704</v>
+        <v>572.8537033227647</v>
       </c>
       <c r="D8" t="n">
-        <v>530.2822141569704</v>
+        <v>572.8537033227647</v>
       </c>
       <c r="E8" t="n">
-        <v>530.2822141569704</v>
+        <v>572.8537033227647</v>
       </c>
       <c r="F8" t="n">
-        <v>113.3877756869482</v>
+        <v>155.9592648527424</v>
       </c>
       <c r="G8" t="n">
-        <v>104.2654242153554</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>104.2654242153554</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>2109.895775511779</v>
+        <v>2071.902861797301</v>
       </c>
       <c r="V8" t="n">
-        <v>2109.895775511779</v>
+        <v>1729.796052500819</v>
       </c>
       <c r="W8" t="n">
-        <v>2109.895775511779</v>
+        <v>1358.797017469107</v>
       </c>
       <c r="X8" t="n">
-        <v>1720.443170444836</v>
+        <v>969.3444124021636</v>
       </c>
       <c r="Y8" t="n">
-        <v>1323.952461365437</v>
+        <v>572.8537033227647</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M9" t="n">
-        <v>1374.529131354181</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N9" t="n">
-        <v>1960.027136360783</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>948.7599926430961</v>
+        <v>849.5086435976843</v>
       </c>
       <c r="C10" t="n">
-        <v>804.4038065282816</v>
+        <v>679.3035256636736</v>
       </c>
       <c r="D10" t="n">
-        <v>648.7706934307963</v>
+        <v>523.6704125661884</v>
       </c>
       <c r="E10" t="n">
-        <v>493.2118812899988</v>
+        <v>368.1116004253909</v>
       </c>
       <c r="F10" t="n">
-        <v>335.8859465029718</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="G10" t="n">
-        <v>335.8859465029718</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="H10" t="n">
-        <v>180.4073954644657</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1611.414556352054</v>
+        <v>1435.837779556535</v>
       </c>
       <c r="C11" t="n">
-        <v>1611.414556352054</v>
+        <v>1114.45855320566</v>
       </c>
       <c r="D11" t="n">
-        <v>1297.769702714916</v>
+        <v>800.8136995685213</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>470.0264498312599</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185754</v>
+        <v>470.0264498312599</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527724</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="H11" t="n">
         <v>128.6599694654569</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293021</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U11" t="n">
-        <v>2827.282650873813</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="V11" t="n">
-        <v>2556.972116723525</v>
+        <v>2706.089773861212</v>
       </c>
       <c r="W11" t="n">
-        <v>2257.769356838007</v>
+        <v>2406.887013975693</v>
       </c>
       <c r="X11" t="n">
-        <v>1940.113026917257</v>
+        <v>2089.230684054944</v>
       </c>
       <c r="Y11" t="n">
-        <v>1940.113026917257</v>
+        <v>1764.536250121738</v>
       </c>
     </row>
     <row r="12">
@@ -5121,19 +5121,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>1173.45686322911</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N12" t="n">
-        <v>1829.234834439669</v>
+        <v>2148.973980501895</v>
       </c>
       <c r="O12" t="n">
-        <v>2345.75511703065</v>
+        <v>2148.973980501895</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>314.848178938469</v>
+        <v>485.8030133066247</v>
       </c>
       <c r="C13" t="n">
-        <v>303.6375936698081</v>
+        <v>387.3941705188079</v>
       </c>
       <c r="D13" t="n">
-        <v>303.6375936698081</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="E13" t="n">
-        <v>219.8750566752044</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="F13" t="n">
-        <v>219.8750566752044</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4172779208438</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H13" t="n">
         <v>123.4172779208438</v>
@@ -5200,16 +5200,16 @@
         <v>102.7129143774625</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027733</v>
       </c>
       <c r="M13" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118218</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138158</v>
+        <v>999.6269248138157</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126308</v>
@@ -5224,25 +5224,25 @@
         <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922022</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T13" t="n">
         <v>1149.685342236449</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245441</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="V13" t="n">
-        <v>741.8597555915624</v>
+        <v>955.5022722034674</v>
       </c>
       <c r="W13" t="n">
-        <v>741.8597555915624</v>
+        <v>743.9681452808389</v>
       </c>
       <c r="X13" t="n">
-        <v>579.5757085207393</v>
+        <v>581.6840982100159</v>
       </c>
       <c r="Y13" t="n">
-        <v>428.2599224835765</v>
+        <v>485.8030133066247</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1966.681876406338</v>
+        <v>1714.395101119022</v>
       </c>
       <c r="C14" t="n">
-        <v>1645.302650055462</v>
+        <v>1393.015874768147</v>
       </c>
       <c r="D14" t="n">
-        <v>1331.657796418324</v>
+        <v>1079.371021131009</v>
       </c>
       <c r="E14" t="n">
-        <v>1000.870546681062</v>
+        <v>748.5837713937468</v>
       </c>
       <c r="F14" t="n">
-        <v>655.7723833572342</v>
+        <v>403.4856080699185</v>
       </c>
       <c r="G14" t="n">
-        <v>314.4059029914312</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579424</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V14" t="n">
-        <v>2405.267789429136</v>
+        <v>2984.647095423698</v>
       </c>
       <c r="W14" t="n">
-        <v>2405.267789429136</v>
+        <v>2685.44433553818</v>
       </c>
       <c r="X14" t="n">
-        <v>2405.267789429136</v>
+        <v>2367.78800561743</v>
       </c>
       <c r="Y14" t="n">
-        <v>2295.380346971541</v>
+        <v>2043.093571684225</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>580.3847592515303</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.156408878212</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N15" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>155.4187662370695</v>
+        <v>655.0952099420616</v>
       </c>
       <c r="C16" t="n">
-        <v>62.11912770411553</v>
+        <v>556.6863671542447</v>
       </c>
       <c r="D16" t="n">
-        <v>62.11912770411553</v>
+        <v>472.8495292029533</v>
       </c>
       <c r="E16" t="n">
-        <v>62.11912770411553</v>
+        <v>389.0869922083497</v>
       </c>
       <c r="F16" t="n">
-        <v>62.11912770411553</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="G16" t="n">
-        <v>62.11912770411553</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
         <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027735</v>
       </c>
       <c r="M16" t="n">
         <v>746.0697615118221</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138159</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.71283314325</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1201.790056457678</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>988.1475398457731</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="V16" t="n">
-        <v>793.9644698127912</v>
+        <v>1131.35686644696</v>
       </c>
       <c r="W16" t="n">
-        <v>582.4303428901626</v>
+        <v>919.8227395243318</v>
       </c>
       <c r="X16" t="n">
-        <v>420.1462958193398</v>
+        <v>919.8227395243318</v>
       </c>
       <c r="Y16" t="n">
-        <v>268.8305097821769</v>
+        <v>768.5069534871691</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5549,10 +5549,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5592,16 +5592,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
         <v>1223.947919817482</v>
@@ -5647,49 +5647,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102858</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567331</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879423</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296503</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5735,25 +5735,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803433</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924243</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5771,13 +5771,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5829,16 +5829,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5902,28 +5902,28 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229927</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222411</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960409</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M22" t="n">
-        <v>499.953029634305</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655142</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
-        <v>845.8474307072222</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
         <v>1094.779966106229</v>
@@ -5966,19 +5966,19 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
         <v>68.77950792924223</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6026,7 +6026,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6075,7 +6075,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6145,28 +6145,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>67.69877031229927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6614512960409</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>499.953029634305</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>683.1426636655142</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>845.8474307072222</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6200,73 +6200,73 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218606</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563783</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>576.9969878838401</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1100.28679488479</v>
       </c>
       <c r="M26" t="n">
-        <v>1988.523626565243</v>
+        <v>1739.339056658944</v>
       </c>
       <c r="N26" t="n">
-        <v>2609.386271932278</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O26" t="n">
-        <v>3079.395388107029</v>
+        <v>2893.292664647881</v>
       </c>
       <c r="P26" t="n">
-        <v>3427.582880238551</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517128</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
         <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6424,10 +6424,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026481</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,25 +6461,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838402</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884792</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658946</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.201702025981</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647883</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6549,7 +6549,7 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796859</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286445</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988159</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026476</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057091</v>
+        <v>601.3807258108108</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.1370811803392</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835494</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770515</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1612.500868940161</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2140.312152577623</v>
+        <v>2138.319739939207</v>
       </c>
       <c r="O32" t="n">
-        <v>2665.76193631596</v>
+        <v>2658.656341426377</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174552</v>
+        <v>3118.495954132882</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.34117404257</v>
+        <v>3303.34151427383</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908496</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.580844380771</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696895</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>551.1212215006583</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>1178.89287112734</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965126</v>
+        <v>365.671367692971</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918664</v>
+        <v>309.3853606404856</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237458</v>
+        <v>267.6713584245256</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123129</v>
+        <v>226.0316571652534</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546504</v>
+        <v>182.6248332597517</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834606</v>
+        <v>128.2898902407226</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431912</v>
+        <v>86.73045008374187</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074065</v>
+        <v>149.3901767122869</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082765</v>
+        <v>313.5178165860867</v>
       </c>
       <c r="M34" t="n">
-        <v>787.8473431465405</v>
+        <v>611.4615154993337</v>
       </c>
       <c r="N34" t="n">
-        <v>1076.31006990482</v>
+        <v>906.3032701055258</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872943</v>
+        <v>1180.660157722217</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649522</v>
+        <v>1376.562239503604</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.002557387757</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501591</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.7859626250175</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395514</v>
+        <v>835.7257283273671</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000937</v>
+        <v>666.3144371400699</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124415</v>
+        <v>546.1532258045784</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584494</v>
+        <v>436.960275502747</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -6980,7 +6980,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7023,16 +7023,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7093,25 +7093,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>67.69877031229927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960409</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>499.953029634305</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q37" t="n">
         <v>1098.20216247628</v>
@@ -7157,16 +7157,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7196,7 +7196,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
         <v>3071.119566829236</v>
@@ -7208,10 +7208,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7324,31 +7324,31 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>435.0968109750523</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>621.3883893133163</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>804.5780233445255</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>967.2827903862335</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>1087.158956162812</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q40" t="n">
         <v>1090.581152532863</v>
@@ -7394,16 +7394,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7454,7 +7454,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="42">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>67.69877031229973</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222416</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>313.6614512960414</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M43" t="n">
-        <v>499.9530296343054</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N43" t="n">
-        <v>683.1426636655146</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O43" t="n">
-        <v>845.8474307072227</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7634,13 +7634,13 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G44" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924227</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7670,10 +7670,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,10 +7682,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
         <v>2147.691468840156</v>
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.156408878212</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1863.93438008877</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O45" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H46" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7810,46 +7810,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>623.4297566485496</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879432</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296512</v>
+        <v>969.324157721467</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974525</v>
+        <v>289.463261197452</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7985,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321642</v>
+        <v>668.5156360519575</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>203.3240141333064</v>
       </c>
       <c r="O2" t="n">
-        <v>540.5248372584006</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8064,16 +8064,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>388.0693895799656</v>
+        <v>611.1777065035421</v>
       </c>
       <c r="N3" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431192</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>178.026313971779</v>
       </c>
       <c r="Q3" t="n">
         <v>90.98815315591399</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8222,19 +8222,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321642</v>
+        <v>658.4862820353975</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>364.6290838376797</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,25 +8292,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837488</v>
+        <v>210.8379091467827</v>
       </c>
       <c r="N6" t="n">
-        <v>247.0771922093709</v>
+        <v>604.1626973083969</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431192</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8529,25 +8529,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>507.3325231325139</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>235.8239269133934</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8769,7 +8769,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8781,10 +8781,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>122.133410929518</v>
+        <v>320.902235706038</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -9003,28 +9003,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>176.3345925796061</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9252,7 +9252,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>447.5171231095475</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9416,7 +9416,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475136</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
         <v>331.2113854294513</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,10 +9486,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N21" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9723,10 +9723,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10425,22 +10425,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>658.1108392979584</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10683,7 +10683,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -11373,10 +11373,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>124.6469814435369</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
@@ -11385,16 +11385,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873668</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>99.42464611010217</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>21.92676759911158</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>86.32627494396448</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.9984695717785</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442488</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338906</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534023</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>54.88035412243387</v>
       </c>
     </row>
     <row r="14">
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372791</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750153</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>147.511231924528</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>212.6589215608541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>5.058112212314228</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177849</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.9249116246576</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442487</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.493200966817</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338904</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456097</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901689</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>174.0960483010576</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>750231.6317476907</v>
+        <v>749930.8579408105</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>750231.6317476907</v>
+        <v>749930.8579408105</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>666276.2890321988</v>
+        <v>666276.2890321987</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>666276.2890321988</v>
+        <v>666276.2890321987</v>
       </c>
     </row>
     <row r="7">
@@ -26314,19 +26314,19 @@
         <v>522963.3164707346</v>
       </c>
       <c r="C2" t="n">
-        <v>522963.3164707347</v>
+        <v>522963.3164707346</v>
       </c>
       <c r="D2" t="n">
         <v>522963.3164707345</v>
       </c>
       <c r="E2" t="n">
+        <v>462141.1679307611</v>
+      </c>
+      <c r="F2" t="n">
         <v>462141.1679307612</v>
       </c>
-      <c r="F2" t="n">
-        <v>462141.1679307613</v>
-      </c>
       <c r="G2" t="n">
-        <v>522963.3164707351</v>
+        <v>522963.3164707349</v>
       </c>
       <c r="H2" t="n">
         <v>522963.3164707349</v>
@@ -26335,25 +26335,25 @@
         <v>522963.3164707349</v>
       </c>
       <c r="J2" t="n">
-        <v>522963.3164707347</v>
+        <v>522963.3164707349</v>
       </c>
       <c r="K2" t="n">
-        <v>522963.3164707347</v>
+        <v>522963.3164707348</v>
       </c>
       <c r="L2" t="n">
-        <v>522963.3164707343</v>
+        <v>522963.3164707349</v>
       </c>
       <c r="M2" t="n">
         <v>522963.3164707349</v>
       </c>
       <c r="N2" t="n">
+        <v>522963.3164707348</v>
+      </c>
+      <c r="O2" t="n">
         <v>522963.3164707349</v>
       </c>
-      <c r="O2" t="n">
-        <v>522963.316470735</v>
-      </c>
       <c r="P2" t="n">
-        <v>522963.316470735</v>
+        <v>522963.3164707351</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918558</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062197</v>
+        <v>22558.42953401358</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.325536682</v>
+        <v>47425.32553668196</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399292</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728559</v>
+        <v>62456.24177539685</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962298</v>
+        <v>43252.52447081117</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277115</v>
+        <v>27767.69404277122</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178075.8047892386</v>
+        <v>184487.2052585816</v>
       </c>
       <c r="C4" t="n">
-        <v>178075.8047892386</v>
+        <v>184487.2052585816</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
       </c>
       <c r="E4" t="n">
-        <v>86988.78851589419</v>
+        <v>86988.78851589424</v>
       </c>
       <c r="F4" t="n">
         <v>86988.78851589424</v>
@@ -26442,10 +26442,10 @@
         <v>135498.1974718596</v>
       </c>
       <c r="K4" t="n">
-        <v>135498.1974718596</v>
+        <v>135498.1974718595</v>
       </c>
       <c r="L4" t="n">
-        <v>135242.6235713762</v>
+        <v>135109.2289623214</v>
       </c>
       <c r="M4" t="n">
         <v>134747.7050074764</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,7 +26485,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26497,13 +26497,13 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173849</v>
+        <v>60823.19813315421</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
         <v>58169.76931551966</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>95998.26224962642</v>
+        <v>99447.38664328073</v>
       </c>
       <c r="C6" t="n">
-        <v>278203.2105414823</v>
+        <v>273306.0436773358</v>
       </c>
       <c r="D6" t="n">
-        <v>272763.6685656578</v>
+        <v>265027.3793422664</v>
       </c>
       <c r="E6" t="n">
-        <v>209843.798240982</v>
+        <v>209634.0666942923</v>
       </c>
       <c r="F6" t="n">
-        <v>321966.3597150265</v>
+        <v>321756.6281683369</v>
       </c>
       <c r="G6" t="n">
-        <v>282620.516611057</v>
+        <v>282620.5166110569</v>
       </c>
       <c r="H6" t="n">
         <v>330045.8421477388</v>
@@ -26543,22 +26543,22 @@
         <v>330045.8421477388</v>
       </c>
       <c r="J6" t="n">
-        <v>117003.9245504531</v>
+        <v>123520.2097050266</v>
       </c>
       <c r="K6" t="n">
-        <v>323806.0737449556</v>
+        <v>323806.0737449558</v>
       </c>
       <c r="L6" t="n">
-        <v>268623.4848103339</v>
+        <v>264574.6475998624</v>
       </c>
       <c r="M6" t="n">
-        <v>287845.0126881158</v>
+        <v>286793.3176769277</v>
       </c>
       <c r="N6" t="n">
-        <v>330045.8421477388</v>
+        <v>330045.8421477387</v>
       </c>
       <c r="O6" t="n">
-        <v>302278.1481049678</v>
+        <v>302278.1481049675</v>
       </c>
       <c r="P6" t="n">
         <v>330045.842147739</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="C4" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,31 +26805,31 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095202</v>
+        <v>844.4391950293134</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.2816569208525</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660699</v>
+        <v>78.07030221924606</v>
       </c>
       <c r="M2" t="n">
-        <v>24.0235120155134</v>
+        <v>17.58004954287432</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346394</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485811</v>
+        <v>72.6215418150648</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773712</v>
+        <v>659.3622249971642</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407288</v>
+        <v>117.1268713042797</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.2816569208525</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485811</v>
+        <v>72.6215418150648</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>266.9713924939241</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -27388,13 +27388,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>193.060058567346</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26.66263604343598</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>27.91849938627044</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>58.59219055516931</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,19 +27546,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,13 +27588,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>135.0235672672219</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>244.7052007956439</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>136.4128587943092</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27670,10 +27670,10 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27746,7 +27746,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938627044</v>
+        <v>124.5704364758567</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27780,16 +27780,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27822,22 +27822,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>237.9147634528937</v>
+        <v>243.6449422671769</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>301.47129615319</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>80.57081616578611</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -27910,10 +27910,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>85.09710294943064</v>
       </c>
       <c r="C10" t="n">
-        <v>25.59044250100433</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28026,13 +28026,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="17">
@@ -28743,16 +28743,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>5.636002634528609</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>35.71049010668797</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
@@ -28980,13 +28980,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.7104901066881</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>35.71049010668821</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -28998,7 +28998,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29217,7 +29217,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>35.71049010668811</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29235,13 +29235,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>128.2979821082778</v>
+      </c>
+      <c r="R25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901135</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
-        <v>30.27223765901266</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29533,19 +29533,19 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>30.2722376590126</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>93.99127447431646</v>
@@ -29554,7 +29554,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29785,37 +29785,37 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>86.27291196566466</v>
+        <v>81.10808140893118</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="O34" t="n">
-        <v>18.71446861254032</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>76.79385455031186</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -30165,7 +30165,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>35.71049010668811</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30177,16 +30177,16 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5.636002634528936</v>
+      </c>
+      <c r="Q37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30271,7 +30271,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155848</v>
       </c>
       <c r="T38" t="n">
         <v>130.3599693155844</v>
@@ -30402,13 +30402,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>130.3599693155844</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>28.01250026485263</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>128.2979821082778</v>
       </c>
       <c r="R40" t="n">
         <v>130.3599693155844</v>
@@ -30639,25 +30639,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>35.71049010668857</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>5.636002634529149</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -30882,19 +30882,19 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>5.636002634529603</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>5.636002634528481</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -34705,16 +34705,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>54.20552279552229</v>
       </c>
       <c r="O2" t="n">
-        <v>390.9609998343042</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34784,16 +34784,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>295.6822675306537</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>90.94294915246429</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34942,19 +34942,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.695742434437</v>
+        <v>508.7612304376702</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>215.0652464135833</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.695742434437</v>
+        <v>118.4507870974708</v>
       </c>
       <c r="N6" t="n">
-        <v>161.7050793552042</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>414.9454010832019</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940788</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35501,10 +35501,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>35.05004611020335</v>
+        <v>233.8188708867233</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257283</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35574,19 +35574,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P13" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488438</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>86.27424572268784</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257284</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35972,7 +35972,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>193.8093140873206</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36060,7 +36060,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>39.16725411684045</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065884</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7126870110591</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,10 +36206,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N21" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.63600263452903</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>201.4959849287082</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36294,7 +36294,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
@@ -36443,10 +36443,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.636002634529037</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36531,13 +36531,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>131.7547461184303</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>528.5755626272223</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
@@ -36607,16 +36607,16 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>474.756683004799</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272236</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101038</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
@@ -36850,7 +36850,7 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37081,16 +37081,16 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>530.757357311451</v>
+        <v>525.5925267547175</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066587</v>
+        <v>464.4844572792978</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111301</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273767</v>
+        <v>75.16693519537678</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>572.7387264437917</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791188</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868809</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>300.953231225502</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>297.8199541476689</v>
       </c>
       <c r="O34" t="n">
-        <v>183.0627181496192</v>
+        <v>277.1281693097889</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>197.88089068827</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37403,7 +37403,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.636002634529037</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37473,16 +37473,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724871</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>193.7979950868726</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37719,7 +37719,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>131.7547461184303</v>
       </c>
       <c r="R40" t="n">
         <v>7.697989841835579</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.636002634529496</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094879</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
@@ -38105,16 +38105,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,19 +38178,19 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>190.6760370094884</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724866</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
